--- a/contratos/contratos-4-2018.xlsx
+++ b/contratos/contratos-4-2018.xlsx
@@ -796,7 +796,7 @@
     <t>AGUILAR DANIEL ANTONIO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ALL PUMPS ARGENTINA S.A.</t>
@@ -832,7 +832,7 @@
     <t>LEOPARDO MIGUEL ALEJANDRO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OSCAR SCORZA EQUIPOS Y SERVICIOS S.R.L.</t>
@@ -1060,7 +1060,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROMERO ELIO RAFAEL</t>
@@ -1522,655 +1522,655 @@
     <t>177</t>
   </si>
   <si>
-    <t>3.140,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>1.705,00</t>
-  </si>
-  <si>
-    <t>300.000,00</t>
-  </si>
-  <si>
-    <t>25.680,00</t>
-  </si>
-  <si>
-    <t>9.376,60</t>
-  </si>
-  <si>
-    <t>1.790,00</t>
-  </si>
-  <si>
-    <t>5.980,00</t>
-  </si>
-  <si>
-    <t>7.020,00</t>
-  </si>
-  <si>
-    <t>93.000,00</t>
-  </si>
-  <si>
-    <t>583,60</t>
-  </si>
-  <si>
-    <t>3.680,00</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>1.716,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>110.117,92</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>7.712,50</t>
-  </si>
-  <si>
-    <t>12.480,00</t>
-  </si>
-  <si>
-    <t>16.689,79</t>
-  </si>
-  <si>
-    <t>459,00</t>
-  </si>
-  <si>
-    <t>70.547,96</t>
-  </si>
-  <si>
-    <t>1.098,00</t>
-  </si>
-  <si>
-    <t>18.489,00</t>
-  </si>
-  <si>
-    <t>46.828,85</t>
-  </si>
-  <si>
-    <t>50.250,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>99,20</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>140.181,94</t>
-  </si>
-  <si>
-    <t>3.262,34</t>
-  </si>
-  <si>
-    <t>101.858,96</t>
-  </si>
-  <si>
-    <t>965,58</t>
-  </si>
-  <si>
-    <t>2.585,80</t>
-  </si>
-  <si>
-    <t>8.980,00</t>
-  </si>
-  <si>
-    <t>5.813,16</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>390,07</t>
-  </si>
-  <si>
-    <t>32.888,32</t>
-  </si>
-  <si>
-    <t>3.365,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>66.294,74</t>
-  </si>
-  <si>
-    <t>249,03</t>
-  </si>
-  <si>
-    <t>1.740,00</t>
-  </si>
-  <si>
-    <t>86.952,48</t>
-  </si>
-  <si>
-    <t>187,00</t>
-  </si>
-  <si>
-    <t>8.300,00</t>
-  </si>
-  <si>
-    <t>2.218,90</t>
-  </si>
-  <si>
-    <t>42,02</t>
-  </si>
-  <si>
-    <t>2.096,00</t>
-  </si>
-  <si>
-    <t>3.917,80</t>
-  </si>
-  <si>
-    <t>15.507,10</t>
-  </si>
-  <si>
-    <t>8.422,00</t>
-  </si>
-  <si>
-    <t>17.681,84</t>
-  </si>
-  <si>
-    <t>3.044,08</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>201,13</t>
-  </si>
-  <si>
-    <t>868,00</t>
-  </si>
-  <si>
-    <t>9.200,00</t>
-  </si>
-  <si>
-    <t>233.497,02</t>
-  </si>
-  <si>
-    <t>1.240,00</t>
-  </si>
-  <si>
-    <t>7.188,00</t>
-  </si>
-  <si>
-    <t>968,00</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>65,00</t>
-  </si>
-  <si>
-    <t>4.225,16</t>
-  </si>
-  <si>
-    <t>12.538,33</t>
-  </si>
-  <si>
-    <t>9.546,00</t>
-  </si>
-  <si>
-    <t>16.162,90</t>
-  </si>
-  <si>
-    <t>9.880,00</t>
-  </si>
-  <si>
-    <t>1.535,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>14.895,00</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>278.850,00</t>
-  </si>
-  <si>
-    <t>11.100,00</t>
-  </si>
-  <si>
-    <t>3.034,72</t>
-  </si>
-  <si>
-    <t>518,00</t>
-  </si>
-  <si>
-    <t>763,00</t>
-  </si>
-  <si>
-    <t>1.040,00</t>
-  </si>
-  <si>
-    <t>6.812,60</t>
-  </si>
-  <si>
-    <t>2.160,00</t>
-  </si>
-  <si>
-    <t>16.878,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>95,00</t>
-  </si>
-  <si>
-    <t>6.340,00</t>
-  </si>
-  <si>
-    <t>2.750,00</t>
-  </si>
-  <si>
-    <t>51.360,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>4.221,00</t>
-  </si>
-  <si>
-    <t>13,78</t>
-  </si>
-  <si>
-    <t>132,00</t>
-  </si>
-  <si>
-    <t>63.600,00</t>
-  </si>
-  <si>
-    <t>275,59</t>
-  </si>
-  <si>
-    <t>138,00</t>
-  </si>
-  <si>
-    <t>27.186,42</t>
-  </si>
-  <si>
-    <t>707,00</t>
-  </si>
-  <si>
-    <t>81,00</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>1.855,10</t>
-  </si>
-  <si>
-    <t>3.430,00</t>
-  </si>
-  <si>
-    <t>1.631,00</t>
-  </si>
-  <si>
-    <t>7.599,00</t>
-  </si>
-  <si>
-    <t>4.753,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>2.395,00</t>
-  </si>
-  <si>
-    <t>7.252,00</t>
-  </si>
-  <si>
-    <t>8.047,00</t>
-  </si>
-  <si>
-    <t>81.508,01</t>
-  </si>
-  <si>
-    <t>2.548,70</t>
-  </si>
-  <si>
-    <t>12.289,20</t>
-  </si>
-  <si>
-    <t>5.594,50</t>
-  </si>
-  <si>
-    <t>2.840,00</t>
-  </si>
-  <si>
-    <t>2.571,50</t>
-  </si>
-  <si>
-    <t>329,50</t>
-  </si>
-  <si>
-    <t>740,00</t>
-  </si>
-  <si>
-    <t>41.400,00</t>
-  </si>
-  <si>
-    <t>5.316,00</t>
-  </si>
-  <si>
-    <t>278,00</t>
-  </si>
-  <si>
-    <t>1.760,00</t>
-  </si>
-  <si>
-    <t>1.136,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>4.700,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>439.710,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>2.995,00</t>
-  </si>
-  <si>
-    <t>7.072,92</t>
-  </si>
-  <si>
-    <t>7.160,00</t>
-  </si>
-  <si>
-    <t>106.660,00</t>
-  </si>
-  <si>
-    <t>48.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>18.400,00</t>
-  </si>
-  <si>
-    <t>80.500,00</t>
-  </si>
-  <si>
-    <t>26.300,00</t>
-  </si>
-  <si>
-    <t>2.747,96</t>
-  </si>
-  <si>
-    <t>1.678,00</t>
-  </si>
-  <si>
-    <t>461,13</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>477.600,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>8.508,50</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>46.161,50</t>
-  </si>
-  <si>
-    <t>38.608,00</t>
-  </si>
-  <si>
-    <t>6.914,48</t>
-  </si>
-  <si>
-    <t>26.900,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>90.800,00</t>
-  </si>
-  <si>
-    <t>74.450,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>9.450,00</t>
-  </si>
-  <si>
-    <t>9.564,00</t>
-  </si>
-  <si>
-    <t>7.705,50</t>
-  </si>
-  <si>
-    <t>8.350,00</t>
-  </si>
-  <si>
-    <t>1.152,60</t>
-  </si>
-  <si>
-    <t>1.577,00</t>
-  </si>
-  <si>
-    <t>29.585,00</t>
-  </si>
-  <si>
-    <t>60.914,00</t>
-  </si>
-  <si>
-    <t>14.512,00</t>
-  </si>
-  <si>
-    <t>1.324,84</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>1.359,48</t>
-  </si>
-  <si>
-    <t>12.575,92</t>
-  </si>
-  <si>
-    <t>5.666,03</t>
-  </si>
-  <si>
-    <t>10.925,36</t>
-  </si>
-  <si>
-    <t>3.455,76</t>
-  </si>
-  <si>
-    <t>27.707,62</t>
-  </si>
-  <si>
-    <t>2.069,10</t>
-  </si>
-  <si>
-    <t>165,00</t>
-  </si>
-  <si>
-    <t>6.616,16</t>
-  </si>
-  <si>
-    <t>3.369,95</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>57.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>8.862,00</t>
-  </si>
-  <si>
-    <t>844.173,37</t>
-  </si>
-  <si>
-    <t>5.198,16</t>
-  </si>
-  <si>
-    <t>6.719.055,13</t>
-  </si>
-  <si>
-    <t>184.321,00</t>
-  </si>
-  <si>
-    <t>1.132.413,37</t>
-  </si>
-  <si>
-    <t>3.450,00</t>
-  </si>
-  <si>
-    <t>4.750,00</t>
-  </si>
-  <si>
-    <t>51.900,79</t>
-  </si>
-  <si>
-    <t>29.100,00</t>
-  </si>
-  <si>
-    <t>51.000,00</t>
-  </si>
-  <si>
-    <t>47.000,00</t>
-  </si>
-  <si>
-    <t>109.162,16</t>
-  </si>
-  <si>
-    <t>752,39</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>8.330,00</t>
-  </si>
-  <si>
-    <t>49.200,00</t>
-  </si>
-  <si>
-    <t>31.812,95</t>
-  </si>
-  <si>
-    <t>28.121,00</t>
+    <t>3140.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1705.00</t>
+  </si>
+  <si>
+    <t>300000.00</t>
+  </si>
+  <si>
+    <t>25680.00</t>
+  </si>
+  <si>
+    <t>9376.60</t>
+  </si>
+  <si>
+    <t>1790.00</t>
+  </si>
+  <si>
+    <t>5980.00</t>
+  </si>
+  <si>
+    <t>7020.00</t>
+  </si>
+  <si>
+    <t>93000.00</t>
+  </si>
+  <si>
+    <t>583.60</t>
+  </si>
+  <si>
+    <t>3680.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>1716.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>110117.92</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>7712.50</t>
+  </si>
+  <si>
+    <t>12480.00</t>
+  </si>
+  <si>
+    <t>16689.79</t>
+  </si>
+  <si>
+    <t>459.00</t>
+  </si>
+  <si>
+    <t>70547.96</t>
+  </si>
+  <si>
+    <t>1098.00</t>
+  </si>
+  <si>
+    <t>18489.00</t>
+  </si>
+  <si>
+    <t>46828.85</t>
+  </si>
+  <si>
+    <t>50250.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>99.20</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>140181.94</t>
+  </si>
+  <si>
+    <t>3262.34</t>
+  </si>
+  <si>
+    <t>101858.96</t>
+  </si>
+  <si>
+    <t>965.58</t>
+  </si>
+  <si>
+    <t>2585.80</t>
+  </si>
+  <si>
+    <t>8980.00</t>
+  </si>
+  <si>
+    <t>5813.16</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>390.07</t>
+  </si>
+  <si>
+    <t>32888.32</t>
+  </si>
+  <si>
+    <t>3365.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>66294.74</t>
+  </si>
+  <si>
+    <t>249.03</t>
+  </si>
+  <si>
+    <t>1740.00</t>
+  </si>
+  <si>
+    <t>86952.48</t>
+  </si>
+  <si>
+    <t>187.00</t>
+  </si>
+  <si>
+    <t>8300.00</t>
+  </si>
+  <si>
+    <t>2218.90</t>
+  </si>
+  <si>
+    <t>42.02</t>
+  </si>
+  <si>
+    <t>2096.00</t>
+  </si>
+  <si>
+    <t>3917.80</t>
+  </si>
+  <si>
+    <t>15507.10</t>
+  </si>
+  <si>
+    <t>8422.00</t>
+  </si>
+  <si>
+    <t>17681.84</t>
+  </si>
+  <si>
+    <t>3044.08</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>201.13</t>
+  </si>
+  <si>
+    <t>868.00</t>
+  </si>
+  <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>233497.02</t>
+  </si>
+  <si>
+    <t>1240.00</t>
+  </si>
+  <si>
+    <t>7188.00</t>
+  </si>
+  <si>
+    <t>968.00</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>4225.16</t>
+  </si>
+  <si>
+    <t>12538.33</t>
+  </si>
+  <si>
+    <t>9546.00</t>
+  </si>
+  <si>
+    <t>16162.90</t>
+  </si>
+  <si>
+    <t>9880.00</t>
+  </si>
+  <si>
+    <t>1535.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>14895.00</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>278850.00</t>
+  </si>
+  <si>
+    <t>11100.00</t>
+  </si>
+  <si>
+    <t>3034.72</t>
+  </si>
+  <si>
+    <t>518.00</t>
+  </si>
+  <si>
+    <t>763.00</t>
+  </si>
+  <si>
+    <t>1040.00</t>
+  </si>
+  <si>
+    <t>6812.60</t>
+  </si>
+  <si>
+    <t>2160.00</t>
+  </si>
+  <si>
+    <t>16878.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>6340.00</t>
+  </si>
+  <si>
+    <t>2750.00</t>
+  </si>
+  <si>
+    <t>51360.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>4221.00</t>
+  </si>
+  <si>
+    <t>13.78</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>63600.00</t>
+  </si>
+  <si>
+    <t>275.59</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>27186.42</t>
+  </si>
+  <si>
+    <t>707.00</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>1855.10</t>
+  </si>
+  <si>
+    <t>3430.00</t>
+  </si>
+  <si>
+    <t>1631.00</t>
+  </si>
+  <si>
+    <t>7599.00</t>
+  </si>
+  <si>
+    <t>4753.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>2395.00</t>
+  </si>
+  <si>
+    <t>7252.00</t>
+  </si>
+  <si>
+    <t>8047.00</t>
+  </si>
+  <si>
+    <t>81508.01</t>
+  </si>
+  <si>
+    <t>2548.70</t>
+  </si>
+  <si>
+    <t>12289.20</t>
+  </si>
+  <si>
+    <t>5594.50</t>
+  </si>
+  <si>
+    <t>2840.00</t>
+  </si>
+  <si>
+    <t>2571.50</t>
+  </si>
+  <si>
+    <t>329.50</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>41400.00</t>
+  </si>
+  <si>
+    <t>5316.00</t>
+  </si>
+  <si>
+    <t>278.00</t>
+  </si>
+  <si>
+    <t>1760.00</t>
+  </si>
+  <si>
+    <t>1136.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>4700.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>439710.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>2995.00</t>
+  </si>
+  <si>
+    <t>7072.92</t>
+  </si>
+  <si>
+    <t>7160.00</t>
+  </si>
+  <si>
+    <t>106660.00</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>18400.00</t>
+  </si>
+  <si>
+    <t>80500.00</t>
+  </si>
+  <si>
+    <t>26300.00</t>
+  </si>
+  <si>
+    <t>2747.96</t>
+  </si>
+  <si>
+    <t>1678.00</t>
+  </si>
+  <si>
+    <t>461.13</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>477600.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>8508.50</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>46161.50</t>
+  </si>
+  <si>
+    <t>38608.00</t>
+  </si>
+  <si>
+    <t>6914.48</t>
+  </si>
+  <si>
+    <t>26900.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>90800.00</t>
+  </si>
+  <si>
+    <t>74450.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>9450.00</t>
+  </si>
+  <si>
+    <t>9564.00</t>
+  </si>
+  <si>
+    <t>7705.50</t>
+  </si>
+  <si>
+    <t>8350.00</t>
+  </si>
+  <si>
+    <t>1152.60</t>
+  </si>
+  <si>
+    <t>1577.00</t>
+  </si>
+  <si>
+    <t>29585.00</t>
+  </si>
+  <si>
+    <t>60914.00</t>
+  </si>
+  <si>
+    <t>14512.00</t>
+  </si>
+  <si>
+    <t>1324.84</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>1359.48</t>
+  </si>
+  <si>
+    <t>12575.92</t>
+  </si>
+  <si>
+    <t>5666.03</t>
+  </si>
+  <si>
+    <t>10925.36</t>
+  </si>
+  <si>
+    <t>3455.76</t>
+  </si>
+  <si>
+    <t>27707.62</t>
+  </si>
+  <si>
+    <t>2069.10</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>6616.16</t>
+  </si>
+  <si>
+    <t>3369.95</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>57000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>8862.00</t>
+  </si>
+  <si>
+    <t>844173.37</t>
+  </si>
+  <si>
+    <t>5198.16</t>
+  </si>
+  <si>
+    <t>6719055.13</t>
+  </si>
+  <si>
+    <t>184321.00</t>
+  </si>
+  <si>
+    <t>1132413.37</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>4750.00</t>
+  </si>
+  <si>
+    <t>51900.79</t>
+  </si>
+  <si>
+    <t>29100.00</t>
+  </si>
+  <si>
+    <t>51000.00</t>
+  </si>
+  <si>
+    <t>47000.00</t>
+  </si>
+  <si>
+    <t>109162.16</t>
+  </si>
+  <si>
+    <t>752.39</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>8330.00</t>
+  </si>
+  <si>
+    <t>49200.00</t>
+  </si>
+  <si>
+    <t>31812.95</t>
+  </si>
+  <si>
+    <t>28121.00</t>
   </si>
 </sst>
 </file>
